--- a/wwwroot/Reports/report_records.xlsx
+++ b/wwwroot/Reports/report_records.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Пластинки</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>Кол-во</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ф</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>asas</t>
   </si>
 </sst>
 </file>
@@ -176,20 +188,44 @@
       </c>
     </row>
     <row r="3" ht="13.8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="13.8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" ht="13.8">
       <c r="A5" s="3"/>

--- a/wwwroot/Reports/report_records.xlsx
+++ b/wwwroot/Reports/report_records.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Пластинки</t>
+    <t>Пластинки в наличие</t>
   </si>
   <si>
     <t>#</t>
@@ -49,10 +49,10 @@
     <t>ф</t>
   </si>
   <si>
-    <t>d</t>
+    <t>s</t>
   </si>
   <si>
-    <t>asas</t>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -112,16 +112,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -137,14 +137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -153,7 +153,7 @@
     <col min="2" max="2" width="10.61" customWidth="1" style="1"/>
     <col min="3" max="3" width="14.94" customWidth="1" style="1"/>
     <col min="4" max="4" width="12.98" customWidth="1" style="1"/>
-    <col min="5" max="5" width="13.32" customWidth="1" style="1"/>
+    <col min="5" max="5" width="27.4" customWidth="1" style="1"/>
     <col min="6" max="1024" width="8.55" customWidth="1" style="1"/>
   </cols>
   <sheetData>
@@ -204,7 +204,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8">
@@ -218,22 +218,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4">
-        <v>5</v>
+      <c r="C5" s="4">
+        <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="13.8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="13.8">
       <c r="A6" s="3"/>

--- a/wwwroot/Reports/report_records.xlsx
+++ b/wwwroot/Reports/report_records.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Пластинки в наличие</t>
   </si>
@@ -43,16 +43,25 @@
     <t>Кол-во</t>
   </si>
   <si>
-    <t>a</t>
+    <t>о-12</t>
   </si>
   <si>
-    <t>ф</t>
+    <t>Весна</t>
   </si>
   <si>
-    <t>s</t>
+    <t>502aс</t>
   </si>
   <si>
-    <t>d</t>
+    <t>Зима</t>
+  </si>
+  <si>
+    <t>hgh1</t>
+  </si>
+  <si>
+    <t>293uuu</t>
+  </si>
+  <si>
+    <t>i999i</t>
   </si>
 </sst>
 </file>
@@ -195,16 +204,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8">
@@ -215,16 +224,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="13.8">
@@ -232,36 +241,60 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" ht="13.8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>150</v>
+      </c>
+      <c r="D6" s="4">
+        <v>125</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" ht="13.8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>180</v>
+      </c>
+      <c r="D7" s="4">
+        <v>130</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" ht="13.8">
       <c r="A8" s="3"/>
